--- a/data/trans_bre/P6905-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6905-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>42,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3,48; 56,57</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 60,74</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-15,18; 55,89</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11,29; 77,89</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 297,79</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,25; 955,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,51%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 22,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,09; 22,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,78; 37,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,84; 27,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; 81,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,79; 93,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,8; 196,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,78; 113,67</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,45%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,2; 23,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,51; 37,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; 23,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 22,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,46; 108,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,4; 184,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,62; 103,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,87; 162,88</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,9</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,52</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,86%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,34; 22,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,03; 30,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,07; 26,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,34; 29,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,6; 102,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,25; 163,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,94; 112,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,43; 202,61</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,51%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,2; 37,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,67; 43,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,07; 50,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,8; 20,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,99; 192,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,33; 363,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,44; 348,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,93; 174,48</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,6</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 82,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,72%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,18%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,9; 19,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,83; 24,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,42; 22,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,11; 20,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,99; 71,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,47; 105,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,84; 95,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,76; 109,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6905-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>42,19</t>
+          <t>41,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 77,89</t>
+          <t>10,82; 75,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 27,61</t>
+          <t>-22,3; 27,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 113,67</t>
+          <t>-40,02; 102,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,45%</t>
+          <t>50,14%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 22,3</t>
+          <t>-2,07; 22,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 162,88</t>
+          <t>-9,55; 155,8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,52</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>87,86%</t>
+          <t>58,56%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 29,18</t>
+          <t>-6,21; 23,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,43; 202,61</t>
+          <t>-27,66; 163,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>39,51%</t>
+          <t>42,22%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 20,78</t>
+          <t>-4,29; 20,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 174,48</t>
+          <t>-15,66; 174,17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34,6</t>
+          <t>34,87</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,77</t>
+          <t>0,0; 83,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>57,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>55,18%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10,92</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15,0</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14,25</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9,46</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>36,35%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>57,72%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>52,47%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>41,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,9; 19,26</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>6,83; 24,01</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>5,42; 22,8</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,11; 20,16</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 17,3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>8,99; 71,01</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>22,47; 105,1</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>16,84; 95,77</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>17,76; 109,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 89,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P6905-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Edad-trans_bre.xlsx
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 56,57</t>
+          <t>2,45; 52,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,74</t>
+          <t>9,68; 61,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 55,89</t>
+          <t>-15,07; 55,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,82; 75,85</t>
+          <t>10,44; 74,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 297,79</t>
+          <t>7,83; 286,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-54,25; 955,4</t>
+          <t>-57,11; inf</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 22,8</t>
+          <t>-4,14; 24,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 22,02</t>
+          <t>-9,85; 21,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 37,53</t>
+          <t>3,26; 37,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 27,5</t>
+          <t>-20,97; 26,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 81,55</t>
+          <t>-10,1; 83,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 93,63</t>
+          <t>-25,12; 88,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 196,01</t>
+          <t>8,58; 197,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 102,69</t>
+          <t>-37,53; 92,35</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 23,17</t>
+          <t>-4,39; 24,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 37,18</t>
+          <t>5,92; 36,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 23,74</t>
+          <t>-6,84; 21,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 22,38</t>
+          <t>-2,67; 22,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 108,68</t>
+          <t>-15,0; 109,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,4; 184,56</t>
+          <t>17,53; 192,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 103,73</t>
+          <t>-21,08; 95,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 155,8</t>
+          <t>-12,7; 171,92</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 22,52</t>
+          <t>-12,23; 24,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 30,93</t>
+          <t>-9,16; 29,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 26,95</t>
+          <t>-7,12; 28,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 23,8</t>
+          <t>-10,04; 23,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 102,2</t>
+          <t>-38,86; 103,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 163,52</t>
+          <t>-32,59; 147,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 112,0</t>
+          <t>-19,7; 128,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,66; 163,0</t>
+          <t>-32,04; 170,9</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 37,71</t>
+          <t>-19,71; 36,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 43,24</t>
+          <t>-7,33; 43,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 50,46</t>
+          <t>0,84; 49,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 20,88</t>
+          <t>-4,51; 20,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-58,99; 192,34</t>
+          <t>-61,31; 178,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 363,41</t>
+          <t>-28,3; 307,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,44; 348,17</t>
+          <t>0,74; 294,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 174,17</t>
+          <t>-16,85; 169,1</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,01</t>
+          <t>0,0; 81,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,9; 19,26</t>
+          <t>3,36; 18,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,83; 24,01</t>
+          <t>6,34; 23,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,42; 22,8</t>
+          <t>5,94; 22,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 17,3</t>
+          <t>-0,19; 17,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,99; 71,01</t>
+          <t>10,35; 70,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>22,47; 105,1</t>
+          <t>21,45; 104,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,84; 95,77</t>
+          <t>19,03; 96,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 89,41</t>
+          <t>-0,48; 91,13</t>
         </is>
       </c>
     </row>
